--- a/tbl/chinesische-kartoffelsuppe.xlsx
+++ b/tbl/chinesische-kartoffelsuppe.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Stück</t>
   </si>
   <si>
-    <t xml:space="preserve">Ei (verquirllt)</t>
+    <t xml:space="preserve">Ei (M)</t>
   </si>
   <si>
     <t xml:space="preserve">Wasser</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kartoffelmehl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esslöffel</t>
   </si>
   <si>
     <t xml:space="preserve">Gemüsebrühe</t>
@@ -192,10 +195,10 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.13"/>
@@ -226,7 +229,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -241,7 +244,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -271,7 +274,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -301,10 +304,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -313,10 +316,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -328,7 +331,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2</v>
